--- a/VerveStacks_DEU_grids/SysSettings.xlsx
+++ b/VerveStacks_DEU_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4064B0-8E86-4557-B50C-2F70CE814863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDC740E-7529-4DC1-8270-03D3CCD51CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9755,7 +9755,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35760503-BF2E-B190-2654-F658110AAB18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD01DDA-8B50-4DAB-F599-5E491A780D73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10255,7 +10255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D181397-25D1-4432-B1CF-CFA971092329}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D19BD96-F64B-475B-90CB-7818E68D323E}">
   <dimension ref="A1:H799"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SysSettings.xlsx
+++ b/VerveStacks_DEU_grids/SysSettings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDC740E-7529-4DC1-8270-03D3CCD51CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F34A6F-5553-4A63-BB78-E85A937CB463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9755,7 +9755,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD01DDA-8B50-4DAB-F599-5E491A780D73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D881DB-0B54-4833-9612-CCAB8F03C279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10255,7 +10255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D19BD96-F64B-475B-90CB-7818E68D323E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54580CE-0A18-43A2-8908-FC624CFE20EA}">
   <dimension ref="A1:H799"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SysSettings.xlsx
+++ b/VerveStacks_DEU_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A784AEA7-3912-4987-A814-F41084879BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97A8B63-015F-4B09-8231-B2B964029F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10370,7 +10370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848BDA58-AA35-463A-B9E2-563265BD3611}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61942DA9-91F7-4F19-A2FF-100783FDD4EA}">
   <dimension ref="B3:H799"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SysSettings.xlsx
+++ b/VerveStacks_DEU_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97A8B63-015F-4B09-8231-B2B964029F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D140836A-EA87-46B1-940C-0366A67C979E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10370,7 +10370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61942DA9-91F7-4F19-A2FF-100783FDD4EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09537A90-03F6-4120-975D-995A2FAF08F6}">
   <dimension ref="B3:H799"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SysSettings.xlsx
+++ b/VerveStacks_DEU_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D140836A-EA87-46B1-940C-0366A67C979E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72F556C-307F-4DFF-B25B-16B056ABDB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10370,7 +10370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09537A90-03F6-4120-975D-995A2FAF08F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EA9F98-4400-4EA6-895F-A4CAF65CC321}">
   <dimension ref="B3:H799"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SysSettings.xlsx
+++ b/VerveStacks_DEU_grids/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72F556C-307F-4DFF-B25B-16B056ABDB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB380540-7C00-4158-8509-2C79C6EC57A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -10370,7 +10370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EA9F98-4400-4EA6-895F-A4CAF65CC321}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF4D963-2268-4764-A5D2-84A053313287}">
   <dimension ref="B3:H799"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SysSettings.xlsx
+++ b/VerveStacks_DEU_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8B706C-6F4D-4D19-AAB1-C216E4289699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7913DCB9-9F2A-4223-9F4D-8C41F927F864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10367,7 +10367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5F8FAA-7137-475B-BB99-86D5E2227592}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33786FD8-F5D8-4B58-9523-176291103208}">
   <dimension ref="B3:H799"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SysSettings.xlsx
+++ b/VerveStacks_DEU_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7913DCB9-9F2A-4223-9F4D-8C41F927F864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B291D68F-CB7E-401B-97C8-EBCFF5096A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10367,7 +10367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33786FD8-F5D8-4B58-9523-176291103208}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407E0810-8517-4680-9C07-45361C6C9054}">
   <dimension ref="B3:H799"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SysSettings.xlsx
+++ b/VerveStacks_DEU_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B291D68F-CB7E-401B-97C8-EBCFF5096A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C437AF63-41A9-483E-B164-17867DD3CC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10367,7 +10367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407E0810-8517-4680-9C07-45361C6C9054}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A46ABE9-F7AF-45C0-AA57-337F7CA45703}">
   <dimension ref="B3:H799"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SysSettings.xlsx
+++ b/VerveStacks_DEU_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C437AF63-41A9-483E-B164-17867DD3CC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F022FF05-7C82-46A0-A965-A6360D00CDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10367,7 +10367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A46ABE9-F7AF-45C0-AA57-337F7CA45703}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A30ECC2-0111-496C-893E-7A9DFDD07E0B}">
   <dimension ref="B3:H799"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SysSettings.xlsx
+++ b/VerveStacks_DEU_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F022FF05-7C82-46A0-A965-A6360D00CDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDBA823-D68A-444B-A56C-98E81A5AAD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10367,7 +10367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A30ECC2-0111-496C-893E-7A9DFDD07E0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB1B17F-8D25-4EBB-8D79-B952617FFA90}">
   <dimension ref="B3:H799"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SysSettings.xlsx
+++ b/VerveStacks_DEU_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDBA823-D68A-444B-A56C-98E81A5AAD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8A703D-7912-475B-941B-DCCF6E0CB5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10367,7 +10367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB1B17F-8D25-4EBB-8D79-B952617FFA90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D5083F-E07E-4AB4-A562-7E0EFC40B2A7}">
   <dimension ref="B3:H799"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SysSettings.xlsx
+++ b/VerveStacks_DEU_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8A703D-7912-475B-941B-DCCF6E0CB5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894CAF7B-F50E-48C5-8C5D-742C598948EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10367,7 +10367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D5083F-E07E-4AB4-A562-7E0EFC40B2A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279542E4-6E67-49B0-AB33-059C9D8BBAEF}">
   <dimension ref="B3:H799"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
